--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
     <sheet name="Projektplan" sheetId="2" r:id="rId2"/>
     <sheet name="Todos" sheetId="3" r:id="rId3"/>
+    <sheet name="Use Cases" sheetId="5" r:id="rId4"/>
+    <sheet name="Anforderungen" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>Wer</t>
   </si>
@@ -47,9 +50,6 @@
     <t>Gemeinsam</t>
   </si>
   <si>
-    <t>Todos, Projektplanung</t>
-  </si>
-  <si>
     <t>Typ</t>
   </si>
   <si>
@@ -168,6 +168,111 @@
   </si>
   <si>
     <t>UI Grobkonzept</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Muss/Soll/Kann</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>Todos, Projektplanung, UI Sketch</t>
+  </si>
+  <si>
+    <t>Mögl. E2E Tests, Datei übergabe von/zu App</t>
+  </si>
+  <si>
+    <t>Scan/QR-Code mit iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File.IO API </t>
+  </si>
+  <si>
+    <t>GIT Repository erstellen, Scaning-Test mit Android</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Libraries für Scanning evalieren</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>Der Inhalt der Datei kann nur vom Sender/Empfänger gelesen werden</t>
+  </si>
+  <si>
+    <t>Die Datei ist zeitlich beschränkt Empfang bar (Ablaufdatum)</t>
+  </si>
+  <si>
+    <t>Der QR Code der zuletzt übertragenen Datei kann angezeigt werden</t>
+  </si>
+  <si>
+    <t>Der Status der zuletzt übertragenen/Empfangenen Datei in Bezug auf die Verfügbarkeit auf dem Server ist ersichtlich</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Kann</t>
+  </si>
+  <si>
+    <t>Der QR Code aller noch nicht abgelaufenen Dateien kann angezeigt werden</t>
+  </si>
+  <si>
+    <t>Die zuletzt Empfangene Datei</t>
+  </si>
+  <si>
+    <t>Der Benuzter kann mehrere Dateien gleichzeitig übertragen</t>
+  </si>
+  <si>
+    <t>Der Benutzer kann mehrere Dateien gleichzeitig empfangen</t>
+  </si>
+  <si>
+    <t>Der Benuzter kann gleichzeitig je eine Datei senden und empfangen</t>
+  </si>
+  <si>
+    <t>Muss</t>
+  </si>
+  <si>
+    <t>Der akutelle Übertragungsstatus (Übertragung läuft/ Abgeschlossen) einer Datei ist ersichtlich</t>
+  </si>
+  <si>
+    <t>Die Datei kann mit OS spezifischen standard Aktionen an/von die/der App übergeben/engegengenommen werden</t>
+  </si>
+  <si>
+    <t>Die Datei kann Plattformübergreifend übertragen werden</t>
+  </si>
+  <si>
+    <t>Die Anwendung kann auch während einer laufenden Übertragung bedient werden</t>
+  </si>
+  <si>
+    <t>Die Übertragung wird nach einem Verbindungsverlust fortgesetzt</t>
+  </si>
+  <si>
+    <t>Nicht</t>
+  </si>
+  <si>
+    <t>Die Übertragung wird bei einem Verbindungsverlust automatisch neu gestartet</t>
+  </si>
+  <si>
+    <t>Die Übertragung wird auch ausgeführt wenn die App im Hintergrund ist</t>
+  </si>
+  <si>
+    <t>Datei Bereitstellen</t>
+  </si>
+  <si>
+    <t>Datei Empfangen</t>
   </si>
 </sst>
 </file>
@@ -175,7 +280,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -251,22 +356,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -282,27 +481,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E53" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E53" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A2:E53"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Wer"/>
-    <tableColumn id="2" name="Was"/>
-    <tableColumn id="6" name="Typ"/>
-    <tableColumn id="3" name="Wann" dataDxfId="0"/>
-    <tableColumn id="4" name="Dauer [h]"/>
+    <tableColumn id="1" name="Wer" dataDxfId="6"/>
+    <tableColumn id="2" name="Was" dataDxfId="5"/>
+    <tableColumn id="6" name="Typ" dataDxfId="4"/>
+    <tableColumn id="3" name="Wann" dataDxfId="3"/>
+    <tableColumn id="4" name="Dauer [h]" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Was"/>
-    <tableColumn id="3" name="Typ"/>
-    <tableColumn id="5" name="Status"/>
-    <tableColumn id="4" name="Wer"/>
+    <tableColumn id="1" name="Was" dataDxfId="12"/>
+    <tableColumn id="3" name="Typ" dataDxfId="11"/>
+    <tableColumn id="5" name="Status" dataDxfId="10"/>
+    <tableColumn id="4" name="Wer" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A2:B24"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A2:E24"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="#" dataDxfId="23"/>
+    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="22"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="21"/>
+    <tableColumn id="4" name="Status" dataDxfId="20"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -608,225 +832,274 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.05078125" customWidth="1"/>
-    <col min="2" max="2" width="47.3671875" customWidth="1"/>
-    <col min="3" max="3" width="13.9453125" customWidth="1"/>
-    <col min="4" max="4" width="9.62890625" customWidth="1"/>
-    <col min="5" max="5" width="9.89453125" customWidth="1"/>
+    <col min="1" max="1" width="16.05078125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.3671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.9453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.62890625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.89453125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="1.05">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" s="10">
+        <v>43064</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="D7" s="10">
+        <v>43064</v>
+      </c>
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43064</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9" s="10">
         <v>43064</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="1"/>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="1"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="1"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="1"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="1"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="1"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="1"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="1"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="1"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="1"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="1"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="1"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="1"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="1"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="1"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="1"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="1"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" s="1"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="1"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="1"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="1"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="1"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="1"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" s="1"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="1"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D34" s="1"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" s="1"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" s="1"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" s="1"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" s="1"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D39" s="1"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D40" s="1"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="1"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D42" s="1"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D43" s="1"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D44" s="1"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D45" s="1"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D46" s="1"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D47" s="1"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D48" s="1"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D49" s="1"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D50" s="1"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D51" s="1"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D52" s="1"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D53" s="1"/>
+      <c r="D53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -843,100 +1116,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="19.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.9453125" style="3"/>
+    <col min="2" max="2" width="19.68359375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.9453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
+    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2" t="s">
+    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -951,180 +1226,482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.3125" customWidth="1"/>
-    <col min="2" max="3" width="25.68359375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="1" max="1" width="34.3125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="25.68359375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.9453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="1.05">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="23.7890625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="77.05078125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.9453125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="4.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.89453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.41796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.9453125" style="3"/>
+    <col min="5" max="5" width="22.7890625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.9453125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Anforderungen" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>Wer</t>
   </si>
@@ -273,6 +272,9 @@
   </si>
   <si>
     <t>Datei Empfangen</t>
+  </si>
+  <si>
+    <t>Architektur Klassendiagramm</t>
   </si>
 </sst>
 </file>
@@ -370,15 +372,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -388,6 +381,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -395,6 +397,51 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -421,51 +468,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,52 +483,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E53" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E53" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A2:E53"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Wer" dataDxfId="6"/>
-    <tableColumn id="2" name="Was" dataDxfId="5"/>
-    <tableColumn id="6" name="Typ" dataDxfId="4"/>
-    <tableColumn id="3" name="Wann" dataDxfId="3"/>
-    <tableColumn id="4" name="Dauer [h]" dataDxfId="2"/>
+    <tableColumn id="1" name="Wer" dataDxfId="21"/>
+    <tableColumn id="2" name="Was" dataDxfId="20"/>
+    <tableColumn id="6" name="Typ" dataDxfId="19"/>
+    <tableColumn id="3" name="Wann" dataDxfId="18"/>
+    <tableColumn id="4" name="Dauer [h]" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Was" dataDxfId="12"/>
-    <tableColumn id="3" name="Typ" dataDxfId="11"/>
-    <tableColumn id="5" name="Status" dataDxfId="10"/>
-    <tableColumn id="4" name="Wer" dataDxfId="9"/>
+    <tableColumn id="1" name="Was" dataDxfId="14"/>
+    <tableColumn id="3" name="Typ" dataDxfId="13"/>
+    <tableColumn id="5" name="Status" dataDxfId="12"/>
+    <tableColumn id="4" name="Wer" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:B24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
+    <tableColumn id="1" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E24"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="23"/>
-    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="22"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="21"/>
-    <tableColumn id="4" name="Status" dataDxfId="20"/>
-    <tableColumn id="5" name="Bemerkungen" dataDxfId="19"/>
+    <tableColumn id="1" name="#" dataDxfId="4"/>
+    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="3"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="2"/>
+    <tableColumn id="4" name="Status" dataDxfId="1"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -831,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -846,13 +848,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -875,7 +877,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
@@ -887,7 +889,7 @@
       <c r="C4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
@@ -899,7 +901,7 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
@@ -911,7 +913,7 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>43064</v>
       </c>
       <c r="E6" s="3">
@@ -928,7 +930,7 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>43064</v>
       </c>
       <c r="E7" s="3">
@@ -945,7 +947,7 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>43064</v>
       </c>
       <c r="E8" s="3">
@@ -962,7 +964,7 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>43064</v>
       </c>
       <c r="E9" s="3">
@@ -970,136 +972,150 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="10"/>
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43070</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="10"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="10"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="10"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="10"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="10"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="10"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="10"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="10"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="10"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="10"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="10"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="10"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="10"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="10"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="10"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" s="10"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="10"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="10"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="10"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="10"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="10"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" s="10"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="10"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D34" s="10"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" s="10"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" s="10"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" s="10"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" s="10"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D39" s="10"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D40" s="10"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="10"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D42" s="10"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D43" s="10"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D44" s="10"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D45" s="10"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D46" s="10"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D47" s="10"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D48" s="10"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D49" s="10"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D50" s="10"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D51" s="10"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D52" s="10"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D53" s="10"/>
+      <c r="D53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1130,19 +1146,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1166,8 +1182,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1181,13 +1197,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1202,7 +1218,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>0.5</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1239,12 +1255,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -1414,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1498,7 +1514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1520,7 +1536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>3</v>
       </c>

--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>Wer</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>Architektur Klassendiagramm</t>
+  </si>
+  <si>
+    <t>UI Umsetzen + ViewModels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShareHandler </t>
+  </si>
+  <si>
+    <t>FileIO, Encryption</t>
   </si>
 </sst>
 </file>
@@ -358,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -379,6 +388,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -848,13 +860,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -1146,16 +1158,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
@@ -1240,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1255,12 +1267,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -1283,8 +1295,8 @@
       <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
+      <c r="C3" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -1297,8 +1309,8 @@
       <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -1311,8 +1323,8 @@
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -1325,11 +1337,17 @@
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
@@ -1343,6 +1361,9 @@
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
@@ -1364,6 +1385,9 @@
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
@@ -1377,8 +1401,8 @@
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
@@ -1412,6 +1436,48 @@
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SD_Card/HSR/D2D/Projekt Dokumente/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,15 @@
     <sheet name="Use Cases" sheetId="5" r:id="rId4"/>
     <sheet name="Anforderungen" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>Wer</t>
   </si>
@@ -193,9 +204,6 @@
     <t xml:space="preserve">File.IO API </t>
   </si>
   <si>
-    <t>GIT Repository erstellen, Scaning-Test mit Android</t>
-  </si>
-  <si>
     <t>Implementation</t>
   </si>
   <si>
@@ -284,12 +292,30 @@
   </si>
   <si>
     <t>FileIO, Encryption</t>
+  </si>
+  <si>
+    <t>GIT Repository erstellen, Scanning-Test mit Android</t>
+  </si>
+  <si>
+    <t>Scanning und Barcode Test mit Zxing</t>
+  </si>
+  <si>
+    <t>File-Picker Test X-Plattform (Android)</t>
+  </si>
+  <si>
+    <t>UML Sequenzdiagramm der Use-Cases</t>
+  </si>
+  <si>
+    <t>Background Service X-Plattform</t>
+  </si>
+  <si>
+    <t>File.IO Service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
   </numFmts>
@@ -367,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -393,6 +419,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -404,11 +433,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -460,10 +493,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -495,52 +524,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E53" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A2:E53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E57" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A2:E57"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Wer" dataDxfId="21"/>
     <tableColumn id="2" name="Was" dataDxfId="20"/>
     <tableColumn id="6" name="Typ" dataDxfId="19"/>
-    <tableColumn id="3" name="Wann" dataDxfId="18"/>
-    <tableColumn id="4" name="Dauer [h]" dataDxfId="17"/>
+    <tableColumn id="3" name="Wann" dataDxfId="0"/>
+    <tableColumn id="4" name="Dauer [h]" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Was" dataDxfId="14"/>
-    <tableColumn id="3" name="Typ" dataDxfId="13"/>
-    <tableColumn id="5" name="Status" dataDxfId="12"/>
-    <tableColumn id="4" name="Wer" dataDxfId="11"/>
+    <tableColumn id="1" name="Was" dataDxfId="15"/>
+    <tableColumn id="3" name="Typ" dataDxfId="14"/>
+    <tableColumn id="5" name="Status" dataDxfId="13"/>
+    <tableColumn id="4" name="Wer" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:B24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="7"/>
+    <tableColumn id="1" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:E24"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="4"/>
-    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="3"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="2"/>
-    <tableColumn id="4" name="Status" dataDxfId="1"/>
-    <tableColumn id="5" name="Bemerkungen" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="5"/>
+    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="4"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="4" name="Status" dataDxfId="2"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -843,32 +872,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.05078125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.3671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.9453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.62890625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.89453125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="3"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -885,93 +914,98 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="7">
+        <v>43052</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43053</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43059</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7">
-        <v>43064</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
-        <v>43064</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
         <v>43064</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -983,151 +1017,233 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43064</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43064</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7">
         <v>43070</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43065</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43069</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43070</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1150,86 +1266,86 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.9453125" style="3"/>
-    <col min="2" max="2" width="19.68359375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.9453125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>0.5</v>
       </c>
@@ -1237,7 +1353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1254,27 +1370,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.3125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="25.68359375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.9453125" style="3"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="10"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1302,7 +1418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1316,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1349,7 +1465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1357,7 +1473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1365,7 +1481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1373,12 +1489,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1389,7 +1505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1397,7 +1513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1408,7 +1524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1419,7 +1535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1430,7 +1546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1438,12 +1554,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>40</v>
@@ -1452,12 +1568,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>40</v>
@@ -1466,12 +1582,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>40</v>
@@ -1496,39 +1612,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7890625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="77.05078125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.9453125" style="3"/>
+    <col min="1" max="1" width="23.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="77" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1543,27 +1659,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.89453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.41796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.9453125" style="3"/>
-    <col min="5" max="5" width="22.7890625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.9453125" style="3"/>
+    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="22.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -1580,205 +1696,205 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>

--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SD_Card/HSR/D2D/Projekt Dokumente/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
@@ -17,24 +12,22 @@
     <sheet name="Todos" sheetId="3" r:id="rId3"/>
     <sheet name="Use Cases" sheetId="5" r:id="rId4"/>
     <sheet name="Anforderungen" sheetId="4" r:id="rId5"/>
+    <sheet name="Bugs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
   <si>
     <t>Wer</t>
   </si>
@@ -310,6 +303,30 @@
   </si>
   <si>
     <t>File.IO Service</t>
+  </si>
+  <si>
+    <t>Android Receive Shared File</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Der Benutzer überträgt eine Datei in die Cloud und kann den Link per  angezeigtem QR-Code einer weitern Person zur verfügung stellen</t>
+  </si>
+  <si>
+    <t>Der Benutzer kann den QR-Code einer anderen Person scannen und die Verknüpfte Datei aus der Cloud herunter landen und sie danach mit anderen Apps teilen.</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Finder</t>
+  </si>
+  <si>
+    <t>App stürzt ab wenn versucht wird zu scannen und keine Kamera vorhanden ist.</t>
   </si>
 </sst>
 </file>
@@ -393,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -431,68 +448,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -524,52 +574,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E57" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E57" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A2:E57"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Wer" dataDxfId="21"/>
-    <tableColumn id="2" name="Was" dataDxfId="20"/>
-    <tableColumn id="6" name="Typ" dataDxfId="19"/>
-    <tableColumn id="3" name="Wann" dataDxfId="0"/>
-    <tableColumn id="4" name="Dauer [h]" dataDxfId="18"/>
+    <tableColumn id="1" name="Wer" dataDxfId="28"/>
+    <tableColumn id="2" name="Was" dataDxfId="27"/>
+    <tableColumn id="6" name="Typ" dataDxfId="26"/>
+    <tableColumn id="3" name="Wann" dataDxfId="25"/>
+    <tableColumn id="4" name="Dauer [h]" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A2:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Was" dataDxfId="15"/>
-    <tableColumn id="3" name="Typ" dataDxfId="14"/>
-    <tableColumn id="5" name="Status" dataDxfId="13"/>
-    <tableColumn id="4" name="Wer" dataDxfId="12"/>
+    <tableColumn id="1" name="Was" dataDxfId="21"/>
+    <tableColumn id="3" name="Typ" dataDxfId="20"/>
+    <tableColumn id="5" name="Status" dataDxfId="19"/>
+    <tableColumn id="4" name="Wer" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:B24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="8"/>
+    <tableColumn id="1" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:E24"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="5"/>
-    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="4"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="4" name="Status" dataDxfId="2"/>
-    <tableColumn id="5" name="Bemerkungen" dataDxfId="1"/>
+    <tableColumn id="1" name="#" dataDxfId="11"/>
+    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="10"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="9"/>
+    <tableColumn id="4" name="Status" dataDxfId="8"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A2:E33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A2:E33"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="#1" dataDxfId="6"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="5"/>
+    <tableColumn id="3" name="Finder" dataDxfId="4"/>
+    <tableColumn id="4" name="Status" dataDxfId="3"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -874,21 +938,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -897,7 +961,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -914,13 +978,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -937,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -954,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -971,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -983,7 +1047,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1119,130 +1183,158 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43071</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43072</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="7"/>
     </row>
   </sheetData>
@@ -1266,86 +1358,86 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.85546875" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>0.5</v>
       </c>
@@ -1353,7 +1445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1370,19 +1462,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
@@ -1390,7 +1482,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1418,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1432,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1446,7 +1538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1457,7 +1549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1465,7 +1557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1473,7 +1565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1481,7 +1573,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1489,12 +1581,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1505,7 +1597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1513,7 +1605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1524,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1535,7 +1627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1546,7 +1638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1554,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -1568,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -1582,7 +1674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -1613,23 +1705,23 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="77" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1637,14 +1729,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1660,26 +1758,26 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="22.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -1696,7 +1794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1707,7 +1805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1718,7 +1816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1729,7 +1827,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1740,7 +1838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1751,7 +1849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1759,7 +1857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1770,7 +1868,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1781,7 +1879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1792,7 +1890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1803,7 +1901,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1814,7 +1912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1825,7 +1923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1836,7 +1934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1847,7 +1945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1858,7 +1956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1869,32 +1967,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1905,4 +2003,62 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="14" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="13"/>
+    <col min="5" max="5" width="15.5703125" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SD_Card/HSR/D2D20171206/Projekt Dokumente/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
@@ -16,18 +21,21 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
   <si>
     <t>Wer</t>
   </si>
@@ -327,6 +335,12 @@
   </si>
   <si>
     <t>App stürzt ab wenn versucht wird zu scannen und keine Kamera vorhanden ist.</t>
+  </si>
+  <si>
+    <t>Der ProgressMessageHandler funktioniert bei Download nicht</t>
+  </si>
+  <si>
+    <t>File.IO service</t>
   </si>
 </sst>
 </file>
@@ -439,15 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -460,10 +465,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
     <dxf>
@@ -476,13 +490,13 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -626,14 +640,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A2:E33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A2:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#1" dataDxfId="6"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="3" name="Finder" dataDxfId="4"/>
-    <tableColumn id="4" name="Status" dataDxfId="3"/>
-    <tableColumn id="5" name="Bemerkungen" dataDxfId="2"/>
+    <tableColumn id="1" name="#1" dataDxfId="4"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="3" name="Finder" dataDxfId="2"/>
+    <tableColumn id="4" name="Status" dataDxfId="1"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -938,30 +952,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -978,13 +992,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1061,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1064,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1217,124 +1231,166 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="7">
+        <v>43073</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="7">
+        <v>43074</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="7">
+        <v>43075</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="7"/>
     </row>
   </sheetData>
@@ -1358,86 +1414,86 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>0.5</v>
       </c>
@@ -1445,7 +1501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1462,27 +1518,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.85546875" style="3"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1510,7 +1566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +1580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1538,7 +1594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1549,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1557,7 +1613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1565,7 +1621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1573,7 +1629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1581,12 +1637,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1605,7 +1661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1616,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1627,7 +1683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1638,7 +1694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1646,7 +1702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -1660,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -1674,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -1708,20 +1764,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="77" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="3"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1729,7 +1785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
@@ -1737,7 +1793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -1761,23 +1817,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="22.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -1794,7 +1850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1805,7 +1861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1816,7 +1872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1827,7 +1883,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1838,7 +1894,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1849,7 +1905,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1857,7 +1913,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1868,7 +1924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1879,7 +1935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1890,7 +1946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1901,7 +1957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1912,7 +1968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1923,7 +1979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1934,7 +1990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1945,7 +2001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1956,7 +2012,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1967,32 +2023,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2007,51 +2063,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="14" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="13"/>
-    <col min="5" max="5" width="15.5703125" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="5.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="10"/>
+    <col min="5" max="5" width="15.5" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SD_Card/HSR/D2D20171206/Projekt Dokumente/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160"/>
+    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
@@ -24,18 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
   <si>
     <t>Wer</t>
   </si>
@@ -341,12 +336,21 @@
   </si>
   <si>
     <t>File.IO service</t>
+  </si>
+  <si>
+    <t>Transmit (Share) File, DI Problem</t>
+  </si>
+  <si>
+    <t>DI Problem -&gt; Global App Object</t>
+  </si>
+  <si>
+    <t>Reto Scherrer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
   </numFmts>
@@ -476,8 +480,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
     <dxf>
@@ -952,21 +956,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.3125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="9.68359375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.83984375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -975,7 +979,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -992,13 +996,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1065,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1282,115 +1286,143 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="7">
+        <v>43073</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43046</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" s="7"/>
     </row>
   </sheetData>
@@ -1414,86 +1446,86 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83984375" style="3"/>
+    <col min="2" max="2" width="19.68359375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6">
         <v>0.5</v>
       </c>
@@ -1501,7 +1533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1518,19 +1550,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.3125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="25.68359375" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="16384" width="10.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1570,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1566,7 +1598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1580,7 +1612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1594,7 +1626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1605,7 +1637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1613,7 +1645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1621,7 +1653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1629,7 +1661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1637,12 +1669,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1653,7 +1685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1661,7 +1693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1672,7 +1704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1683,7 +1715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1694,7 +1726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1702,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -1716,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -1730,7 +1762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -1764,20 +1796,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.83984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="77" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="16384" width="10.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1785,7 +1817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
@@ -1793,7 +1825,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -1813,27 +1845,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="22.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="4.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.83984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.47265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83984375" style="3"/>
+    <col min="5" max="5" width="22.83984375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -1850,7 +1882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1861,7 +1893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1872,7 +1904,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1883,7 +1915,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1894,7 +1926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1905,7 +1937,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1913,7 +1945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1924,7 +1956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1935,7 +1967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1946,7 +1978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1957,7 +1989,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1968,7 +2000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1979,7 +2011,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1990,7 +2022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2001,7 +2033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2012,7 +2044,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2023,32 +2055,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2065,27 +2097,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="10"/>
-    <col min="5" max="5" width="15.5" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="5.15625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="50.83984375" style="11" customWidth="1"/>
+    <col min="3" max="4" width="10.83984375" style="10"/>
+    <col min="5" max="5" width="15.47265625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="10.83984375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
@@ -2102,15 +2134,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
         <v>2</v>
       </c>

--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14160" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Use Cases" sheetId="5" r:id="rId4"/>
     <sheet name="Anforderungen" sheetId="4" r:id="rId5"/>
     <sheet name="Bugs" sheetId="6" r:id="rId6"/>
+    <sheet name="Erekenntnisse" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="124">
   <si>
     <t>Wer</t>
   </si>
@@ -345,6 +346,63 @@
   </si>
   <si>
     <t>Reto Scherrer</t>
+  </si>
+  <si>
+    <t>Erkenntnisse/LearningsProbleme</t>
+  </si>
+  <si>
+    <t>Testing vernachlässigt, da der zeitliche Aufwand für das erstellen von Mocks als zu gross erachtet wurde im Verhältnis zur zu verfügung stehenden Zeit.</t>
+  </si>
+  <si>
+    <t>Für alle überraschent ist die Tatsache, dass sehr vieles was wir als Grundlegende anforderung an eine App nicht durch Xamarin bereits Platformunabhängig zur Verfügung steht. Zwar ist vieles über Nuget/Githup nachrüstbar. Aber diese Abhängigkeiten führten zu anderen Problemen.</t>
+  </si>
+  <si>
+    <t>Oft funktionierte etwas an der Entwicklungs-Umgebung nicht mehr. Entweder nach einem Update von Visualstudio selber oder eines der Nuget-Packete. Oder aus sonst unerfindlichen Gründen. Preview, Simulator-Start/Debugging. Auf Mac unterschiedlich als zu Windows-PC</t>
+  </si>
+  <si>
+    <t>Ständige Updates von Nuget Packete nötig, verfügbar, inkompatibel. Consolidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertiefung MVVM-Architektur und XAML-Design </t>
+  </si>
+  <si>
+    <t>IDE Updates</t>
+  </si>
+  <si>
+    <t>Update von Xcode auf Version 11.2, Update von Visual Studio, weil ich am Samstag mein iPhone SE auf die neuste aktualisiert habe</t>
+  </si>
+  <si>
+    <t>Erstellung und Verfeinerung des App Icons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umsetzung UI Design </t>
+  </si>
+  <si>
+    <t>Optimierung UI Design</t>
+  </si>
+  <si>
+    <t>Visual Studio Update rückgängig machen, neu Installieren. Simulator nicht mehr verwendbar</t>
+  </si>
+  <si>
+    <t>Statusupdate, Tasks/Probleme besprechen</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Konzeption</t>
+  </si>
+  <si>
+    <t>User Settings</t>
+  </si>
+  <si>
+    <t>Stauts-Meeting</t>
+  </si>
+  <si>
+    <t>Bestehende Probleme lösen</t>
+  </si>
+  <si>
+    <t>Primärer Use-Case f. Android im UI realisieren</t>
   </si>
 </sst>
 </file>
@@ -428,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -472,11 +530,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,6 +552,9 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -561,9 +631,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -592,66 +659,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E57" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A2:E57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:E56" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A2:E56"/>
+  <sortState ref="A3:E56">
+    <sortCondition ref="D2:D56"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Wer" dataDxfId="28"/>
-    <tableColumn id="2" name="Was" dataDxfId="27"/>
-    <tableColumn id="6" name="Typ" dataDxfId="26"/>
-    <tableColumn id="3" name="Wann" dataDxfId="25"/>
-    <tableColumn id="4" name="Dauer [h]" dataDxfId="24"/>
+    <tableColumn id="2" name="Was" dataDxfId="0"/>
+    <tableColumn id="6" name="Typ" dataDxfId="27"/>
+    <tableColumn id="3" name="Wann" dataDxfId="26"/>
+    <tableColumn id="4" name="Dauer [h]" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A2:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Was" dataDxfId="21"/>
-    <tableColumn id="3" name="Typ" dataDxfId="20"/>
-    <tableColumn id="5" name="Status" dataDxfId="19"/>
-    <tableColumn id="4" name="Wer" dataDxfId="18"/>
+    <tableColumn id="1" name="Was" dataDxfId="22"/>
+    <tableColumn id="3" name="Typ" dataDxfId="21"/>
+    <tableColumn id="5" name="Status" dataDxfId="20"/>
+    <tableColumn id="4" name="Wer" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A2:B24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="15"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="14"/>
+    <tableColumn id="1" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A2:E24"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="11"/>
-    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="10"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="9"/>
-    <tableColumn id="4" name="Status" dataDxfId="8"/>
-    <tableColumn id="5" name="Bemerkungen" dataDxfId="7"/>
+    <tableColumn id="1" name="#" dataDxfId="12"/>
+    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="11"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="10"/>
+    <tableColumn id="4" name="Status" dataDxfId="9"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A2:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A2:E33" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#1" dataDxfId="4"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="3" name="Finder" dataDxfId="2"/>
-    <tableColumn id="4" name="Status" dataDxfId="1"/>
-    <tableColumn id="5" name="Bemerkungen" dataDxfId="0"/>
+    <tableColumn id="1" name="#1" dataDxfId="5"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="4"/>
+    <tableColumn id="3" name="Finder" dataDxfId="3"/>
+    <tableColumn id="4" name="Status" dataDxfId="2"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -954,17 +1024,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.3125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="15" customWidth="1"/>
+    <col min="2" max="2" width="47.3125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="15" customWidth="1"/>
     <col min="4" max="4" width="9.68359375" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.83984375" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.83984375" style="3"/>
@@ -974,19 +1044,19 @@
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -997,99 +1067,115 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>56</v>
       </c>
+      <c r="D3" s="7">
+        <v>43052</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="D4" s="7">
-        <v>43052</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
+        <v>43053</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43054</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7">
-        <v>43053</v>
-      </c>
-      <c r="E5" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="7">
         <v>43059</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43064</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D8" s="7">
         <v>43064</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="7">
@@ -1100,13 +1186,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="7">
@@ -1117,98 +1203,98 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43065</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7">
-        <v>43064</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
+      <c r="D12" s="7">
+        <v>43069</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>43070</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7">
-        <v>43065</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>10</v>
+      <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="7">
-        <v>43069</v>
-      </c>
-      <c r="E14" s="9">
-        <v>3</v>
+        <v>43070</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="7">
         <v>43070</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="7">
@@ -1219,13 +1305,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="7">
@@ -1235,65 +1321,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="7">
+        <v>43072</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="7">
+        <v>43072</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="7">
         <v>43073</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="7">
-        <v>43074</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="7">
-        <v>43075</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="7">
@@ -1304,45 +1390,157 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43073</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43074</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="7">
+        <v>43074</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="7">
+        <v>43075</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="7">
+        <v>43075</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C27" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="7">
-        <v>43046</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D27" s="7">
+        <v>43076</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="7"/>
-    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="7"/>
+      <c r="A28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7">
+        <v>43076</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="7"/>
+      <c r="A29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="7">
+        <v>43076</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="7"/>
+      <c r="A30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43077</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="7"/>
@@ -1422,12 +1620,8 @@
     <row r="56" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D57" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1442,28 +1636,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.83984375" style="3"/>
-    <col min="2" max="2" width="19.68359375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.20703125" style="3" customWidth="1"/>
     <col min="3" max="16384" width="10.83984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
@@ -1505,9 +1699,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1548,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1563,12 +1777,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -1641,30 +1855,51 @@
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C7" s="8" t="s">
         <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="B8" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1673,6 +1908,9 @@
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="B11" s="15" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
@@ -1697,6 +1935,9 @@
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="B14" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
@@ -1708,8 +1949,11 @@
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B15" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
@@ -1719,6 +1963,9 @@
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B16" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
@@ -1730,6 +1977,12 @@
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1774,6 +2027,11 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2160,4 +2418,53 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="58.9453125" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14160" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="124">
   <si>
     <t>Wer</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Dauer [h]</t>
   </si>
   <si>
-    <t>Ifanger Reto</t>
-  </si>
-  <si>
     <t>Hartmann Peter</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>I18N mit Xamarin</t>
   </si>
   <si>
-    <t>Abkläruen/Risikominimierung</t>
-  </si>
-  <si>
     <t>In Arbeit</t>
   </si>
   <si>
@@ -403,6 +397,12 @@
   </si>
   <si>
     <t>Primärer Use-Case f. Android im UI realisieren</t>
+  </si>
+  <si>
+    <t>Infanger Reto</t>
+  </si>
+  <si>
+    <t>Abklärungen/Risikominimierung</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -533,6 +533,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -542,9 +548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -552,9 +555,6 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -635,6 +635,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -666,62 +669,62 @@
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Wer" dataDxfId="28"/>
-    <tableColumn id="2" name="Was" dataDxfId="0"/>
-    <tableColumn id="6" name="Typ" dataDxfId="27"/>
-    <tableColumn id="3" name="Wann" dataDxfId="26"/>
-    <tableColumn id="4" name="Dauer [h]" dataDxfId="25"/>
+    <tableColumn id="2" name="Was" dataDxfId="27"/>
+    <tableColumn id="6" name="Typ" dataDxfId="26"/>
+    <tableColumn id="3" name="Wann" dataDxfId="25"/>
+    <tableColumn id="4" name="Dauer [h]" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:D25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A2:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Was" dataDxfId="22"/>
-    <tableColumn id="3" name="Typ" dataDxfId="21"/>
-    <tableColumn id="5" name="Status" dataDxfId="20"/>
-    <tableColumn id="4" name="Wer" dataDxfId="19"/>
+    <tableColumn id="1" name="Was" dataDxfId="21"/>
+    <tableColumn id="3" name="Typ" dataDxfId="20"/>
+    <tableColumn id="5" name="Status" dataDxfId="19"/>
+    <tableColumn id="4" name="Wer" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A2:B24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:B24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="15"/>
+    <tableColumn id="1" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:E24"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="12"/>
-    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="11"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="10"/>
-    <tableColumn id="4" name="Status" dataDxfId="9"/>
-    <tableColumn id="5" name="Bemerkungen" dataDxfId="8"/>
+    <tableColumn id="1" name="#" dataDxfId="11"/>
+    <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="10"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="9"/>
+    <tableColumn id="4" name="Status" dataDxfId="8"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A2:E33" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A2:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#1" dataDxfId="5"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="4"/>
-    <tableColumn id="3" name="Finder" dataDxfId="3"/>
-    <tableColumn id="4" name="Status" dataDxfId="2"/>
-    <tableColumn id="5" name="Bemerkungen" dataDxfId="1"/>
+    <tableColumn id="1" name="#1" dataDxfId="4"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="3" name="Finder" dataDxfId="2"/>
+    <tableColumn id="4" name="Status" dataDxfId="1"/>
+    <tableColumn id="5" name="Bemerkungen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1026,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1042,12 +1045,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
@@ -1057,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -1068,13 +1071,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="7">
         <v>43052</v>
@@ -1085,13 +1088,13 @@
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7">
         <v>43053</v>
@@ -1102,13 +1105,13 @@
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
         <v>43054</v>
@@ -1119,13 +1122,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
         <v>43059</v>
@@ -1136,13 +1139,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
         <v>43064</v>
@@ -1153,13 +1156,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
         <v>43064</v>
@@ -1170,13 +1173,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
         <v>43064</v>
@@ -1187,13 +1190,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
         <v>43064</v>
@@ -1204,13 +1207,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
         <v>43065</v>
@@ -1221,13 +1224,13 @@
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
         <v>43069</v>
@@ -1238,13 +1241,13 @@
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
         <v>43070</v>
@@ -1255,13 +1258,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
         <v>43070</v>
@@ -1271,14 +1274,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="15" t="s">
-        <v>4</v>
+      <c r="A15" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
         <v>43070</v>
@@ -1289,13 +1292,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7">
         <v>43071</v>
@@ -1306,13 +1309,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="7">
         <v>43072</v>
@@ -1322,14 +1325,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="15" t="s">
-        <v>4</v>
+      <c r="A18" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="7">
         <v>43072</v>
@@ -1340,13 +1343,13 @@
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7">
         <v>43072</v>
@@ -1357,13 +1360,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="7">
         <v>43073</v>
@@ -1374,13 +1377,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7">
         <v>43073</v>
@@ -1390,14 +1393,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="15" t="s">
-        <v>4</v>
+      <c r="A22" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7">
         <v>43073</v>
@@ -1408,13 +1411,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7">
         <v>43074</v>
@@ -1424,14 +1427,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="15" t="s">
-        <v>4</v>
+      <c r="A24" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7">
         <v>43074</v>
@@ -1442,13 +1445,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="7">
         <v>43075</v>
@@ -1458,14 +1461,14 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="15" t="s">
-        <v>4</v>
+      <c r="A26" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7">
         <v>43075</v>
@@ -1476,13 +1479,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="7">
         <v>43076</v>
@@ -1493,13 +1496,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7">
         <v>43076</v>
@@ -1509,14 +1512,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="15" t="s">
-        <v>4</v>
+      <c r="A29" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" s="7">
         <v>43076</v>
@@ -1527,13 +1530,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
         <v>43077</v>
@@ -1636,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1648,95 +1651,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1744,12 +1747,12 @@
         <v>0.5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1764,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1777,22 +1780,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -1800,238 +1803,253 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
+      <c r="D4" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2063,32 +2081,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2119,25 +2137,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2145,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2156,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2167,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2178,10 +2196,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2189,10 +2207,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2200,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2208,10 +2226,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2219,10 +2237,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2230,10 +2248,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2241,10 +2259,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2252,10 +2270,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2263,10 +2281,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2274,10 +2292,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2285,10 +2303,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2296,10 +2314,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2307,10 +2325,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2370,26 +2388,26 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2397,10 +2415,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2408,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2424,40 +2442,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="58.9453125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="58.9453125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="19" t="s">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="17" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="19" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14160" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="131">
   <si>
     <t>Wer</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Der QR Code aller noch nicht abgelaufenen Dateien kann angezeigt werden</t>
   </si>
   <si>
-    <t>Die zuletzt Empfangene Datei</t>
-  </si>
-  <si>
     <t>Der Benuzter kann mehrere Dateien gleichzeitig übertragen</t>
   </si>
   <si>
@@ -403,6 +400,30 @@
   </si>
   <si>
     <t>Abklärungen/Risikominimierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umsetzung UI, </t>
+  </si>
+  <si>
+    <t>File-Share für IOS</t>
+  </si>
+  <si>
+    <t>Umsetzung Transfer-Progress</t>
+  </si>
+  <si>
+    <t>Testing, Bugfixing</t>
+  </si>
+  <si>
+    <t>Präsentation Vorbereiten</t>
+  </si>
+  <si>
+    <t>Peter Hartmann</t>
+  </si>
+  <si>
+    <t>lässt sich nicht beheben</t>
+  </si>
+  <si>
+    <t>Erledigt, Nicht behoben</t>
   </si>
 </sst>
 </file>
@@ -486,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -538,6 +559,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -703,8 +727,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A2:E24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A2:E23"/>
   <tableColumns count="5">
     <tableColumn id="1" name="#" dataDxfId="11"/>
     <tableColumn id="2" name="Muss/Soll/Kann" dataDxfId="10"/>
@@ -1029,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1049,8 +1073,8 @@
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
@@ -1074,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>54</v>
@@ -1091,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>54</v>
@@ -1125,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>54</v>
@@ -1156,7 +1180,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
@@ -1210,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>17</v>
@@ -1227,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>9</v>
@@ -1244,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>54</v>
@@ -1261,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>54</v>
@@ -1275,10 +1299,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>54</v>
@@ -1295,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>54</v>
@@ -1315,7 +1339,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
         <v>43072</v>
@@ -1326,13 +1350,13 @@
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="7">
         <v>43072</v>
@@ -1346,10 +1370,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="7">
         <v>43072</v>
@@ -1363,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>54</v>
@@ -1380,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>54</v>
@@ -1394,10 +1418,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>54</v>
@@ -1414,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>54</v>
@@ -1428,10 +1452,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>54</v>
@@ -1448,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>54</v>
@@ -1462,10 +1486,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>54</v>
@@ -1482,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>54</v>
@@ -1499,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>54</v>
@@ -1513,10 +1537,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>54</v>
@@ -1533,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>8</v>
@@ -1546,57 +1570,197 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="7"/>
+      <c r="A31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="7">
+        <v>43077</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="7">
+        <v>43077</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="7">
+        <v>43077</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="7">
+        <v>43077</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="7">
+        <v>43077</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="7">
+        <v>43078</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="7">
+        <v>43078</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="7">
+        <v>43078</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7">
+        <v>43078</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7">
+        <v>43078</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -1651,16 +1815,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
@@ -1714,17 +1878,17 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1767,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1780,12 +1944,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -1806,7 +1970,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>39</v>
@@ -1820,13 +1984,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1834,7 +1998,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -1848,7 +2012,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>39</v>
@@ -1868,7 +2032,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1876,13 +2040,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1896,7 +2060,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1904,13 +2068,13 @@
         <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1918,13 +2082,13 @@
         <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1932,7 +2096,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>39</v>
@@ -1946,7 +2110,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1954,7 +2118,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>39</v>
@@ -1968,7 +2132,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>39</v>
@@ -1982,7 +2146,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
@@ -2007,7 +2171,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>54</v>
@@ -2016,12 +2180,12 @@
         <v>38</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>54</v>
@@ -2035,7 +2199,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>54</v>
@@ -2049,7 +2213,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2095,18 +2259,18 @@
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2119,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2179,9 +2343,12 @@
       <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2190,9 +2357,12 @@
       <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2203,7 +2373,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2214,15 +2384,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3">
+      <c r="A8" s="18">
         <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2233,40 +2406,46 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3">
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2276,89 +2455,81 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3">
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="18">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3">
+      <c r="A23" s="18">
         <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2373,35 +2544,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5.15625" style="10" customWidth="1"/>
     <col min="2" max="2" width="50.83984375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="10.83984375" style="10"/>
-    <col min="5" max="5" width="15.47265625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.7890625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.68359375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.20703125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="10.83984375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>27</v>
@@ -2415,10 +2587,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2426,7 +2598,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2452,30 +2633,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt Dokumente/Projektsteuerung.xlsx
+++ b/Projekt Dokumente/Projektsteuerung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14160" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitefassung" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="130">
   <si>
     <t>Wer</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vertiefung MVVM-Architektur und XAML-Design </t>
-  </si>
-  <si>
-    <t>IDE Updates</t>
   </si>
   <si>
     <t>Update von Xcode auf Version 11.2, Update von Visual Studio, weil ich am Samstag mein iPhone SE auf die neuste aktualisiert habe</t>
@@ -507,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -559,6 +556,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1073,8 +1073,8 @@
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
@@ -1180,7 +1180,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>107</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="15" t="s">
         <v>108</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="D18" s="7">
         <v>43072</v>
@@ -1370,10 +1370,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="D19" s="7">
         <v>43072</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>54</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>54</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>54</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>54</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>54</v>
@@ -1532,49 +1532,49 @@
         <v>43076</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="16" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="D29" s="7">
         <v>43076</v>
       </c>
       <c r="E29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7">
         <v>43077</v>
       </c>
       <c r="E30" s="3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="15" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>54</v>
@@ -1583,15 +1583,15 @@
         <v>43077</v>
       </c>
       <c r="E31" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="18" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>54</v>
@@ -1600,24 +1600,24 @@
         <v>43077</v>
       </c>
       <c r="E32" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D33" s="7">
         <v>43077</v>
       </c>
       <c r="E33" s="3">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1625,10 +1625,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>54</v>
+        <v>125</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="D34" s="7">
         <v>43077</v>
@@ -1642,10 +1642,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>54</v>
+        <v>125</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="D35" s="7">
         <v>43077</v>
@@ -1656,61 +1656,61 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="D36" s="7">
-        <v>43078</v>
+        <v>43077</v>
       </c>
       <c r="E36" s="3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="15" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>43078</v>
+        <v>43077</v>
       </c>
       <c r="E37" s="3">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="15" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>54</v>
+      <c r="C38" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="D38" s="7">
         <v>43078</v>
       </c>
       <c r="E38" s="3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>8</v>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>8</v>
@@ -1740,13 +1740,55 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="7"/>
+      <c r="A41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="7">
+        <v>43078</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D42" s="7"/>
+      <c r="A42" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="7">
+        <v>43078</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D43" s="7"/>
+      <c r="A43" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="7">
+        <v>43078</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" s="7"/>
@@ -1815,16 +1857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
@@ -1878,17 +1920,17 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1944,12 +1986,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
@@ -1970,7 +2012,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>39</v>
@@ -1984,13 +2026,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1998,7 +2040,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -2012,7 +2054,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>39</v>
@@ -2032,7 +2074,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2040,13 +2082,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2060,7 +2102,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2068,13 +2110,13 @@
         <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2082,13 +2124,13 @@
         <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2096,7 +2138,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>39</v>
@@ -2110,7 +2152,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2118,7 +2160,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>39</v>
@@ -2132,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>39</v>
@@ -2146,7 +2188,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
@@ -2180,7 +2222,7 @@
         <v>38</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2213,7 +2255,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2601,13 +2643,13 @@
         <v>97</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +2666,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2633,11 +2675,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
